--- a/service/src/main/resources/template/excel_template_dec.xlsx
+++ b/service/src/main/resources/template/excel_template_dec.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Правила заполнения" sheetId="2" r:id="rId1"/>
     <sheet name="РНУ НДФЛ" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -139,19 +139,7 @@
     <t>НДФЛ излишне удержанный</t>
   </si>
   <si>
-    <t>НДФЛ возвращенный НП</t>
-  </si>
-  <si>
     <t>Срок перечисления в бюджет</t>
-  </si>
-  <si>
-    <t>Дата платежного поручения</t>
-  </si>
-  <si>
-    <t>Номер платежного поручения</t>
-  </si>
-  <si>
-    <t>Сумма платежного поручения</t>
   </si>
   <si>
     <t>Код вычета</t>
@@ -245,6 +233,18 @@
   </si>
   <si>
     <t>СведАванс. ID операции</t>
+  </si>
+  <si>
+    <t>НДФЛ возвращённый НП</t>
+  </si>
+  <si>
+    <t>Дата платёжного поручения</t>
+  </si>
+  <si>
+    <t>Номер платёжного поручения</t>
+  </si>
+  <si>
+    <t>Сумма платёжного поручения</t>
   </si>
 </sst>
 </file>
@@ -679,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -699,23 +699,23 @@
   <sheetData>
     <row r="2" spans="1:2" ht="21">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="210">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -728,9 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -739,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="52.5">
       <c r="A1" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -859,76 +857,76 @@
         <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AV1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BK1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="BH1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BI1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:64">
